--- a/statistics/R/roiObjectLvl_Within-PLI_delta/roiObjectLvl_Within-PLI_delta.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_delta/roiObjectLvl_Within-PLI_delta.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>0.038262191115452093</v>
+        <v>0.035073675189164377</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.083235327108844903</v>
+        <v>-0.076299049849774481</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.019728559535506063</v>
+        <v>-0.018084512907547201</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.01480644958905819</v>
+        <v>0.013572578789970036</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.012119447581404208</v>
+        <v>-0.011109493616287103</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0042371778473541677</v>
+        <v>0.0038840796934079824</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0038028459810217075</v>
+        <v>0.0034859421492698939</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.051692033862293207</v>
+        <v>-0.04738436437376875</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>0.060353680339065907</v>
+        <v>0.055324206977477031</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.042445832087775914</v>
+        <v>-0.038908679413794445</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.022958854160900266</v>
+        <v>-0.021045616314158411</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>0.012010097708038348</v>
+        <v>0.011009256232368314</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0078887802672968355</v>
+        <v>0.0072313819116887612</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.006545230948630798</v>
+        <v>-0.0059997950362447594</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.015972247093528569</v>
+        <v>0.014641226502401239</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.030103015610261852</v>
+        <v>0.027594430976073503</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.002684256021403264</v>
+        <v>0.0024605680196196356</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>0.04279410801149941</v>
+        <v>0.03922793234387445</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>0.015491687541376975</v>
+        <v>0.014200713579595514</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.033543050176778721</v>
+        <v>-0.030747795995380522</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>0.0059667789173780128</v>
+        <v>0.0054695473409296924</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.027241167557373047</v>
+        <v>-0.024971070260925432</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.023809466144824432</v>
+        <v>0.021825343966088984</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.021764572799215898</v>
+        <v>0.019950858399281179</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.0046025698199611553</v>
+        <v>-0.0042190223349641842</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>0.0093784693480812864</v>
+        <v>0.008596930235741318</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>0.016711276677397413</v>
+        <v>0.015318670287614355</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.042503035469787454</v>
+        <v>0.038961115847305106</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0086049346918912195</v>
+        <v>0.0078878568009002614</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.034160501551805944</v>
+        <v>-0.03131379308915555</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.0059597988005964941</v>
+        <v>-0.0054631489005467215</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>0.0057928629191126291</v>
+        <v>0.005310124342519984</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.023343938363701189</v>
+        <v>-0.021398610166726117</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.017549944879137358</v>
+        <v>0.016087449472542426</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>0.036655401620463768</v>
+        <v>0.033600784818758445</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>0.031635316987283724</v>
+        <v>0.028999040571676793</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.051746917475817722</v>
+        <v>0.047434674352832884</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.015096953502750698</v>
+        <v>-0.013838874044188043</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.008971953588930881</v>
+        <v>-0.0082242907898533169</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.016953189054638496</v>
+        <v>-0.015540423300085093</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.016182690716852188</v>
+        <v>-0.01483413315711446</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.044381117071334519</v>
+        <v>0.040682690648723319</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.030113357126697105</v>
+        <v>-0.027603910699472323</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.0067145970972858904</v>
+        <v>-0.0061550473391787652</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.04046180295889662</v>
+        <v>-0.037089986045655221</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>0.0019981935095806369</v>
+        <v>0.0018316773837822042</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>0.011446240172117983</v>
+        <v>0.010492386824441369</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>0.064708965357325454</v>
+        <v>0.059316551577548227</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.0077684038042094006</v>
+        <v>0.0071210368205252284</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>0.0022619130170618007</v>
+        <v>0.002073420265639947</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.0075155497515745906</v>
+        <v>-0.0068892539389433516</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.019447278252539391</v>
+        <v>0.017826671731494492</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.0055815508714060491</v>
+        <v>-0.0051164216321221145</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>0.012599954342738473</v>
+        <v>0.011549958147510198</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.0031180172484519542</v>
+        <v>-0.0028581824777476617</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.022142807611915116</v>
+        <v>0.020297573644255495</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.011873816221642242</v>
+        <v>-0.010884331536505476</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>0.049112558351688762</v>
+        <v>0.045019845155714666</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>0.015846351715917029</v>
+        <v>0.014525822406257272</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>0.050401088444566589</v>
+        <v>0.046200997740852845</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.059479718518620162</v>
+        <v>-0.054523075308735069</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>0.018354591113068197</v>
+        <v>0.016825041853645917</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.021911433091557408</v>
+        <v>-0.020085480333927486</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.097500385633762676</v>
+        <v>0.089375353497615606</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.0010449027507484221</v>
+        <v>-0.0009578275215192944</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.0076622250535293146</v>
+        <v>0.0070237062990685661</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>-0.010749103426449025</v>
+        <v>-0.0098533448075782126</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>0.018617876770050779</v>
+        <v>0.017066387039213204</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.0013501309267900385</v>
+        <v>-0.0012376200162242945</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>-0.031835435096304709</v>
+        <v>-0.029182482171612678</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.010089280016816304</v>
+        <v>-0.0092485066820815476</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>-0.04880296413477192</v>
+        <v>-0.044736050456874288</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.023521620623069783</v>
+        <v>-0.021561485571147454</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.0091067681647392096</v>
+        <v>-0.0083478708176776273</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.019183586264331531</v>
+        <v>-0.01758495407563726</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.038341801129525011</v>
+        <v>0.035146651035397936</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.022219000479870021</v>
+        <v>-0.020367417106547603</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.010589456900392424</v>
+        <v>-0.0097070021586929678</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>-0.030458131248644937</v>
+        <v>-0.027919953644591267</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.012526642961425638</v>
+        <v>-0.011482756047973441</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.019551348727550211</v>
+        <v>-0.017922069666920948</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.019180009454609015</v>
+        <v>-0.017581675333391611</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>-0.013243533529513629</v>
+        <v>-0.012139905735387369</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.01251472245261076</v>
+        <v>0.011471828914893012</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.052729795483418773</v>
+        <v>-0.048335645859800491</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>-0.0024604908186144359</v>
+        <v>-0.0022554499170632791</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>0.010180010180010246</v>
+        <v>0.0093316759983427255</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.036812221594830163</v>
+        <v>-0.033744536461927765</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.051420626519440849</v>
+        <v>-0.047135574309487394</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.015073911280219898</v>
+        <v>-0.013817752006868356</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.085029034304396567</v>
+        <v>0.077943281445696955</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.017610066008235448</v>
+        <v>-0.016142560507549086</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.028736246127550436</v>
+        <v>-0.026341558950254584</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>0.02274091404526174</v>
+        <v>0.020845837874823359</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.012251099207620963</v>
+        <v>-0.011230174273652582</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.033952689749791098</v>
+        <v>0.031123298937308641</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>-0.053851874599395555</v>
+        <v>-0.049364218382779212</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.029086715471154989</v>
+        <v>-0.026662822515225282</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>-0.0047813518614880923</v>
+        <v>-0.0043829058730308068</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.061577445848545576</v>
+        <v>0.056445992027833458</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>-0.014176966350879394</v>
+        <v>-0.01299555248830625</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>0.020983695776656264</v>
+        <v>0.019235054461935019</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>0.016551022399883708</v>
+        <v>0.015171770533226658</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.0047699214365882203</v>
+        <v>-0.0043724279835392066</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>-0.010472829313409038</v>
+        <v>-0.0096000935372915763</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.0020060517099148578</v>
+        <v>-0.0018388807340886659</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>0.014640367266002652</v>
+        <v>0.013420336660502297</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.015373126172565144</v>
+        <v>-0.0140920323248514</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>0.025473261498106137</v>
+        <v>0.023350489706597366</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>0.02889724400021898</v>
+        <v>0.026489140333533945</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>-0.0014484307962568388</v>
+        <v>-0.0013277282299019588</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.059861399375465862</v>
+        <v>0.054872949427510309</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.0035769383595471438</v>
+        <v>-0.0032788601629180625</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.0085860958349082139</v>
+        <v>-0.0078705878486660108</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>0.057266209440122451</v>
+        <v>0.05249402532011227</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.035544864492233041</v>
+        <v>-0.032582792451213538</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>0.11482870178522342</v>
+        <v>0.10525964330312165</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>0.064348779451754268</v>
+        <v>0.058986381164108037</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.026326768832489633</v>
+        <v>0.02413287142978221</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>0.045002305871871096</v>
+        <v>0.041252113715881777</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>0.046369600078039863</v>
+        <v>0.042505466738203157</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.010110159566681431</v>
+        <v>-0.0092676462694579742</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>-0.011204946605144261</v>
+        <v>-0.010271201054715628</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.019669174097764974</v>
+        <v>-0.018030076256284444</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.026717037276043354</v>
+        <v>0.02449061750303988</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.0065842239755283805</v>
+        <v>-0.006035538644234284</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.001787336932264294</v>
+        <v>-0.0016383921879090102</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.00054566141522671696</v>
+        <v>-0.00050018963062453681</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>0.0071860026093435447</v>
+        <v>0.0065871690585649345</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>-0.0023507632203285111</v>
+        <v>-0.0021548662853010936</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>-0.028254524249947566</v>
+        <v>-0.025899980562451907</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>0.013984842949037513</v>
+        <v>0.012819439369950891</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>-0.0057864188298971109</v>
+        <v>-0.0053042172607389859</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>0.020014031932414855</v>
+        <v>0.018346195938047039</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>0.0041826128782651018</v>
+        <v>0.0038340618050761166</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>0.0056630376996510412</v>
+        <v>0.0051911178913467415</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.063129344593875647</v>
+        <v>0.057868565877719214</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>0.030090216589072349</v>
+        <v>0.027582698539983075</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>0.01755811575901528</v>
+        <v>0.016094939445764012</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.0038075907641126339</v>
+        <v>0.0034902915337697293</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.066826207142412719</v>
+        <v>0.06125735654721165</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.019392345479302076</v>
+        <v>0.01777631668936025</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>-0.005308197459524322</v>
+        <v>-0.0048658476712306054</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>0.0017059072765595595</v>
+        <v>0.001563748336846138</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>-0.0040763965249090983</v>
+        <v>-0.0037366968145002288</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>0.033860221437861215</v>
+        <v>0.031038536318039378</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.012560643692938578</v>
+        <v>0.011513923385193581</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.019272583868857163</v>
+        <v>0.017666535213119061</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>0.017566571914397922</v>
+        <v>0.016102690921531493</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.024775984174961074</v>
+        <v>-0.022711318827047855</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>0.031834510095379687</v>
+        <v>0.029181634254097921</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>0.0017712815195653486</v>
+        <v>0.0016236747262681761</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>-0.016942222532284668</v>
+        <v>-0.015530370654594283</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>0.00075371814502239731</v>
+        <v>0.00069090829960394284</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>0.022228174402087408</v>
+        <v>0.020375826535246833</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>0.035619753011057409</v>
+        <v>0.032651440260135889</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.0083067936587605251</v>
+        <v>0.0076145608538638054</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>0.016467889539418468</v>
+        <v>0.015095565411133605</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>0.036009729850309646</v>
+        <v>0.033008919029450523</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>0.021100871178510949</v>
+        <v>0.019342465246968366</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.001061853616451891</v>
+        <v>0.00097336581508078446</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>0.012655786952462167</v>
+        <v>0.011601138039756875</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>0.035873610244319565</v>
+        <v>0.032884142723959675</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>0.024141763272198136</v>
+        <v>0.022129949666181647</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>-0.0085277965712748927</v>
+        <v>-0.0078171468570019664</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>0.016538964243904331</v>
+        <v>0.015160717223578868</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>-0.014511866064661039</v>
+        <v>-0.013302543892605878</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.0017863713515887669</v>
+        <v>-0.0016375070722897123</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.010392365827148475</v>
+        <v>0.0095263353415526164</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>0.028314515814515884</v>
+        <v>0.025954972829972722</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.046819947182265897</v>
+        <v>-0.042918284917077054</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>-0.037625457190674727</v>
+        <v>-0.034490002424785005</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.044546395633352109</v>
+        <v>0.040834195997239475</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>-0.023657115762378889</v>
+        <v>-0.021685689448847356</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/R/roiObjectLvl_Within-PLI_delta/roiObjectLvl_Within-PLI_delta.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_delta/roiObjectLvl_Within-PLI_delta.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>0.035073675189164377</v>
+        <v>0.038262191115452093</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.076299049849774481</v>
+        <v>-0.083235327108844903</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.018084512907547201</v>
+        <v>-0.019728559535506063</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.013572578789970036</v>
+        <v>0.01480644958905819</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.011109493616287103</v>
+        <v>-0.012119447581404208</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0038840796934079824</v>
+        <v>0.0042371778473541677</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0034859421492698939</v>
+        <v>0.0038028459810217075</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.04738436437376875</v>
+        <v>-0.051692033862293207</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>0.055324206977477031</v>
+        <v>0.060353680339065907</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.038908679413794445</v>
+        <v>-0.042445832087775914</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.021045616314158411</v>
+        <v>-0.022958854160900266</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>0.011009256232368314</v>
+        <v>0.012010097708038348</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0072313819116887612</v>
+        <v>0.0078887802672968355</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.0059997950362447594</v>
+        <v>-0.006545230948630798</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.014641226502401239</v>
+        <v>0.015972247093528569</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.027594430976073503</v>
+        <v>0.030103015610261852</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0024605680196196356</v>
+        <v>0.002684256021403264</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>0.03922793234387445</v>
+        <v>0.04279410801149941</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>0.014200713579595514</v>
+        <v>0.015491687541376975</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.030747795995380522</v>
+        <v>-0.033543050176778721</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>0.0054695473409296924</v>
+        <v>0.0059667789173780128</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.024971070260925432</v>
+        <v>-0.027241167557373047</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.021825343966088984</v>
+        <v>0.023809466144824432</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.019950858399281179</v>
+        <v>0.021764572799215898</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.0042190223349641842</v>
+        <v>-0.0046025698199611553</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>0.008596930235741318</v>
+        <v>0.0093784693480812864</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>0.015318670287614355</v>
+        <v>0.016711276677397413</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.038961115847305106</v>
+        <v>0.042503035469787454</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0078878568009002614</v>
+        <v>0.0086049346918912195</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.03131379308915555</v>
+        <v>-0.034160501551805944</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.0054631489005467215</v>
+        <v>-0.0059597988005964941</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>0.005310124342519984</v>
+        <v>0.0057928629191126291</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.021398610166726117</v>
+        <v>-0.023343938363701189</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.016087449472542426</v>
+        <v>0.017549944879137358</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>0.033600784818758445</v>
+        <v>0.036655401620463768</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>0.028999040571676793</v>
+        <v>0.031635316987283724</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.047434674352832884</v>
+        <v>0.051746917475817722</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.013838874044188043</v>
+        <v>-0.015096953502750698</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.0082242907898533169</v>
+        <v>-0.008971953588930881</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.015540423300085093</v>
+        <v>-0.016953189054638496</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.01483413315711446</v>
+        <v>-0.016182690716852188</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.040682690648723319</v>
+        <v>0.044381117071334519</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.027603910699472323</v>
+        <v>-0.030113357126697105</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.0061550473391787652</v>
+        <v>-0.0067145970972858904</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.037089986045655221</v>
+        <v>-0.04046180295889662</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>0.0018316773837822042</v>
+        <v>0.0019981935095806369</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>0.010492386824441369</v>
+        <v>0.011446240172117983</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>0.059316551577548227</v>
+        <v>0.064708965357325454</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.0071210368205252284</v>
+        <v>0.0077684038042094006</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>0.002073420265639947</v>
+        <v>0.0022619130170618007</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.0068892539389433516</v>
+        <v>-0.0075155497515745906</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.017826671731494492</v>
+        <v>0.019447278252539391</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.0051164216321221145</v>
+        <v>-0.0055815508714060491</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>0.011549958147510198</v>
+        <v>0.012599954342738473</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.0028581824777476617</v>
+        <v>-0.0031180172484519542</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.020297573644255495</v>
+        <v>0.022142807611915116</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.010884331536505476</v>
+        <v>-0.011873816221642242</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>0.045019845155714666</v>
+        <v>0.049112558351688762</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>0.014525822406257272</v>
+        <v>0.015846351715917029</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>0.046200997740852845</v>
+        <v>0.050401088444566589</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.054523075308735069</v>
+        <v>-0.059479718518620162</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>0.016825041853645917</v>
+        <v>0.018354591113068197</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.020085480333927486</v>
+        <v>-0.021911433091557408</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.089375353497615606</v>
+        <v>0.097500385633762676</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.0009578275215192944</v>
+        <v>-0.0010449027507484221</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.0070237062990685661</v>
+        <v>0.0076622250535293146</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>-0.0098533448075782126</v>
+        <v>-0.010749103426449025</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>0.017066387039213204</v>
+        <v>0.018617876770050779</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.0012376200162242945</v>
+        <v>-0.0013501309267900385</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>-0.029182482171612678</v>
+        <v>-0.031835435096304709</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.0092485066820815476</v>
+        <v>-0.010089280016816304</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>-0.044736050456874288</v>
+        <v>-0.04880296413477192</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.021561485571147454</v>
+        <v>-0.023521620623069783</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.0083478708176776273</v>
+        <v>-0.0091067681647392096</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.01758495407563726</v>
+        <v>-0.019183586264331531</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.035146651035397936</v>
+        <v>0.038341801129525011</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.020367417106547603</v>
+        <v>-0.022219000479870021</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.0097070021586929678</v>
+        <v>-0.010589456900392424</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>-0.027919953644591267</v>
+        <v>-0.030458131248644937</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.011482756047973441</v>
+        <v>-0.012526642961425638</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.017922069666920948</v>
+        <v>-0.019551348727550211</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.017581675333391611</v>
+        <v>-0.019180009454609015</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>-0.012139905735387369</v>
+        <v>-0.013243533529513629</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.011471828914893012</v>
+        <v>0.01251472245261076</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.048335645859800491</v>
+        <v>-0.052729795483418773</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>-0.0022554499170632791</v>
+        <v>-0.0024604908186144359</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>0.0093316759983427255</v>
+        <v>0.010180010180010246</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.033744536461927765</v>
+        <v>-0.036812221594830163</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.047135574309487394</v>
+        <v>-0.051420626519440849</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.013817752006868356</v>
+        <v>-0.015073911280219898</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.077943281445696955</v>
+        <v>0.085029034304396567</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.016142560507549086</v>
+        <v>-0.017610066008235448</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.026341558950254584</v>
+        <v>-0.028736246127550436</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>0.020845837874823359</v>
+        <v>0.02274091404526174</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.011230174273652582</v>
+        <v>-0.012251099207620963</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.031123298937308641</v>
+        <v>0.033952689749791098</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>-0.049364218382779212</v>
+        <v>-0.053851874599395555</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.026662822515225282</v>
+        <v>-0.029086715471154989</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>-0.0043829058730308068</v>
+        <v>-0.0047813518614880923</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.056445992027833458</v>
+        <v>0.061577445848545576</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>-0.01299555248830625</v>
+        <v>-0.014176966350879394</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>0.019235054461935019</v>
+        <v>0.020983695776656264</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>0.015171770533226658</v>
+        <v>0.016551022399883708</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.0043724279835392066</v>
+        <v>-0.0047699214365882203</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>-0.0096000935372915763</v>
+        <v>-0.010472829313409038</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.0018388807340886659</v>
+        <v>-0.0020060517099148578</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>0.013420336660502297</v>
+        <v>0.014640367266002652</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.0140920323248514</v>
+        <v>-0.015373126172565144</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>0.023350489706597366</v>
+        <v>0.025473261498106137</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>0.026489140333533945</v>
+        <v>0.02889724400021898</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>-0.0013277282299019588</v>
+        <v>-0.0014484307962568388</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.054872949427510309</v>
+        <v>0.059861399375465862</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.0032788601629180625</v>
+        <v>-0.0035769383595471438</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.0078705878486660108</v>
+        <v>-0.0085860958349082139</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>0.05249402532011227</v>
+        <v>0.057266209440122451</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.032582792451213538</v>
+        <v>-0.035544864492233041</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>0.10525964330312165</v>
+        <v>0.11482870178522342</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>0.058986381164108037</v>
+        <v>0.064348779451754268</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.02413287142978221</v>
+        <v>0.026326768832489633</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>0.041252113715881777</v>
+        <v>0.045002305871871096</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>0.042505466738203157</v>
+        <v>0.046369600078039863</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.0092676462694579742</v>
+        <v>-0.010110159566681431</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>-0.010271201054715628</v>
+        <v>-0.011204946605144261</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.018030076256284444</v>
+        <v>-0.019669174097764974</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.02449061750303988</v>
+        <v>0.026717037276043354</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.006035538644234284</v>
+        <v>-0.0065842239755283805</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0016383921879090102</v>
+        <v>-0.001787336932264294</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.00050018963062453681</v>
+        <v>-0.00054566141522671696</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>0.0065871690585649345</v>
+        <v>0.0071860026093435447</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>-0.0021548662853010936</v>
+        <v>-0.0023507632203285111</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>-0.025899980562451907</v>
+        <v>-0.028254524249947566</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>0.012819439369950891</v>
+        <v>0.013984842949037513</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>-0.0053042172607389859</v>
+        <v>-0.0057864188298971109</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>0.018346195938047039</v>
+        <v>0.020014031932414855</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>0.0038340618050761166</v>
+        <v>0.0041826128782651018</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>0.0051911178913467415</v>
+        <v>0.0056630376996510412</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.057868565877719214</v>
+        <v>0.063129344593875647</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>0.027582698539983075</v>
+        <v>0.030090216589072349</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>0.016094939445764012</v>
+        <v>0.01755811575901528</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.0034902915337697293</v>
+        <v>0.0038075907641126339</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.06125735654721165</v>
+        <v>0.066826207142412719</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.01777631668936025</v>
+        <v>0.019392345479302076</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>-0.0048658476712306054</v>
+        <v>-0.005308197459524322</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>0.001563748336846138</v>
+        <v>0.0017059072765595595</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>-0.0037366968145002288</v>
+        <v>-0.0040763965249090983</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>0.031038536318039378</v>
+        <v>0.033860221437861215</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.011513923385193581</v>
+        <v>0.012560643692938578</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.017666535213119061</v>
+        <v>0.019272583868857163</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>0.016102690921531493</v>
+        <v>0.017566571914397922</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.022711318827047855</v>
+        <v>-0.024775984174961074</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>0.029181634254097921</v>
+        <v>0.031834510095379687</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>0.0016236747262681761</v>
+        <v>0.0017712815195653486</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>-0.015530370654594283</v>
+        <v>-0.016942222532284668</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>0.00069090829960394284</v>
+        <v>0.00075371814502239731</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>0.020375826535246833</v>
+        <v>0.022228174402087408</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>0.032651440260135889</v>
+        <v>0.035619753011057409</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.0076145608538638054</v>
+        <v>0.0083067936587605251</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>0.015095565411133605</v>
+        <v>0.016467889539418468</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>0.033008919029450523</v>
+        <v>0.036009729850309646</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>0.019342465246968366</v>
+        <v>0.021100871178510949</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.00097336581508078446</v>
+        <v>0.001061853616451891</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>0.011601138039756875</v>
+        <v>0.012655786952462167</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>0.032884142723959675</v>
+        <v>0.035873610244319565</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>0.022129949666181647</v>
+        <v>0.024141763272198136</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>-0.0078171468570019664</v>
+        <v>-0.0085277965712748927</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>0.015160717223578868</v>
+        <v>0.016538964243904331</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>-0.013302543892605878</v>
+        <v>-0.014511866064661039</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.0016375070722897123</v>
+        <v>-0.0017863713515887669</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.0095263353415526164</v>
+        <v>0.010392365827148475</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>0.025954972829972722</v>
+        <v>0.028314515814515884</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.042918284917077054</v>
+        <v>-0.046819947182265897</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>-0.034490002424785005</v>
+        <v>-0.037625457190674727</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.040834195997239475</v>
+        <v>0.044546395633352109</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>-0.021685689448847356</v>
+        <v>-0.023657115762378889</v>
       </c>
     </row>
   </sheetData>
